--- a/sources/modelo - dpaula.xlsx
+++ b/sources/modelo - dpaula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travessia\Documents\travessia-code\projeto-travessia\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED2E598-3E9D-4098-A933-F212DCA21D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28F220F-92FA-4F07-BEC2-CB4ECF7D02FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{370DA055-CB71-4F1C-9B16-4AEA37A59957}"/>
   </bookViews>
@@ -30859,7 +30859,7 @@
   </sheetPr>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
